--- a/.source/Card/하나카드_김찬식_2022-2023.xlsx
+++ b/.source/Card/하나카드_김찬식_2022-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d251688e3d9c1650/바탕 화면/새 폴더/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d251688e3d9c1650/Cursor/MyInfo/.source/Card/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A3965FD31E79A8BD2749F3DB793AED507AC55413" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0866D623-074C-4E64-83BF-36A57EC846A0}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_A3965FD31E79A8BD2749F3DB793AED507AC55413" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAA4D13E-2283-40EA-9472-97A655CA0CFB}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="40935" yWindow="705" windowWidth="19665" windowHeight="20475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="하나카드" sheetId="1" r:id="rId1"/>
@@ -3640,12 +3640,19 @@
   <dimension ref="A1:I457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
